--- a/django_project/wfrp/example_media/default_characters.xlsx
+++ b/django_project/wfrp/example_media/default_characters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="208">
   <si>
     <t xml:space="preserve">character</t>
   </si>
@@ -211,6 +211,9 @@
     <t xml:space="preserve">melee_basic</t>
   </si>
   <si>
+    <t xml:space="preserve">melee</t>
+  </si>
+  <si>
     <t xml:space="preserve">navigation</t>
   </si>
   <si>
@@ -319,7 +322,7 @@
     <t xml:space="preserve">Wife and family dead</t>
   </si>
   <si>
-    <t xml:space="preserve">Karak Angaraz,Grey Mountains</t>
+    <t xml:space="preserve">Karak Angaraz, Grey Mountains</t>
   </si>
   <si>
     <t xml:space="preserve">Gunnar was a jewelsmith before tragedy hit, leaving leaving his daughter and two sons dead. He swore the Slayer oath immediately and has regretted it ever since, though he will never admit it. He now seeks his death in the most honourable fashion he can muster, but frequently lapses into melancholia and drink when he fails, which gets in the way of the fate-illed duty he must complete. He fell in with Salundra after a drunken night in Ubersreik four years ago, and he found he really liked the boisterous captain, for all she was Human. Given his life had little meaning beyond that, and she seems destined for trouble, he decided to stay with her, and is now fiercely protective of her, often treating her more as a daughter than a companion at arms.</t>
@@ -330,7 +333,7 @@
 3) Proving he has honour.</t>
   </si>
   <si>
-    <t xml:space="preserve">Gunnar will protect Salundra’s life with his own,no matter the outcome. He is very fond of Molli, and will go out of his way to ensure she is safe. Maybe it’s because he’s a witch, but Gunnar just doesn’t trust Ferdinand. Amris can jump oﬀ a cliﬀ for all Gunnar cares.He’s just annoying. Else is his kind of Human: dedicated,devout, and strong.</t>
+    <t xml:space="preserve">Gunnar will protect Salundra’s life with his own, no matter the outcome. He is very fond of Molli, and will go out of his way to ensure she is safe. Maybe it’s because he’s a witch, but Gunnar just doesn’t trust Ferdinand. Amris can jump oﬀ a cliﬀ for all Gunnar cares. He’s just annoying. Else is his kind of Human: dedicated, devout, and strong.</t>
   </si>
   <si>
     <t xml:space="preserve">He is hyper ticklish,and secretly loves being tickled. He will never admit this.
@@ -343,10 +346,344 @@
     <t xml:space="preserve">Pending</t>
   </si>
   <si>
-    <t xml:space="preserve">Strong</t>
+    <t xml:space="preserve">Angry, troubled, and belligerent.</t>
   </si>
   <si>
     <t xml:space="preserve">No mutations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERDINAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ferdinand.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ferdinand_full.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferdinand Gruber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Academic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wizard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wizard’s Apprentice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scion, Wizard's Apprentice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brass 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dolores Gruber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barhold Gruber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Brothers, 1 Sister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weissbruck, Reikland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gruber is the oldest son of the Baron of Weissbruck, but as he’s a wizard, he cannot legally inherit, meaning his wastrel younger brother, Bartolini, is now the Baronet. This once bothered him, but Ferdinand has mellowed over the fifteen years he’s been training to be an Amethyst Wizard and is now the epitome of calm. His mother was an acrobat from the famous touring Cuppolalinni Family of Tilea, a marriage that was not well accepted at court, leaving Gruber with a bitter opinion concerning courtiers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Protecting Salundra.
+2) Using humour to diﬀuse a situation.
+3) Stopping Undead.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferdinand will protect Salundra’s life with his own, no matter the outcome. He likes sleeping with Molli (just sleeping), and ﬁnds her snuggles comforting. Ferdinand enjoys long quiet drinks with Gunnar. Amris fascinates him. Ferdinand wants to know all about the Elf’s homelands. Else is reliable and strong. Ferdinand likes her a lot, and puts stock in her words.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferdinand was hired by Salundra’s father to protect her.
+Rats, mice, and vermin of all kinds cause Fear in Ferdinand (ask the GM).
+Ferdinand really dislikes Courtiers (not including Sali,obviously).
+Ferdinand refuses to harm an Entertainer (his mother’s profession).
+Magic has taken its toll on Ferdinand’s soul.Gain +3 Corruption.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dour, loyal, and often sarcastic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMRIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amris.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amris_full.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amris Emberfell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Elf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burgher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merchant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student, Trader, Merchant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amber &amp; Brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creamy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Princess Imryth Emberfell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alantha Goldcrest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Sister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avethir, Caledor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amris’s father is a Merchant Prince of Cothique, and he wants Amris to follow in his footsteps, but Amris has absolutely no desire to do this at all. Because Amris is in love. With Humanity. In the short two-score years he’s been in Altdorf he’s been both appalled and delighted by just how much has changed. From top to bottom, the Empire is an evershifting, chaotic source of utter bewilderment, and Amris adores it. He made a deal with Sali last year – she’d break him out of his father’s compound if he’d help her in a job to steal a brooch from his cousin. Well, that just sounded too exciting to turn down. Yes, he might be on the run; and, yes, his father might view Sali as a thief and a kidnapper; but is there really anything wrong with that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Learn a fascinating new fact about Humanity.
+2) Find a new book of esoteric Human lore.
+3) Escape your father’s pursuers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amris is enthralled by Salundra’ s drive and changeable moods.
+Amris loves Molli like a little sister,which she seems happy with.
+Gunnar is so sad. Amris wants him to be happy. He’ll need to tr y harder.
+Ferdinand is like a child scrabbling in the muck; an utterly compelling study.
+Else is so cold and unfeeling that he ﬁnds it hard to communicate with her</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amris’s mother,a princess from Caledor ,is gravely ill. Amris is the heir.
+In truth,Amris cares little for Humanity; it’s mostly an act.Gain +3 Corruption.
+Amris is fascinated by the Asrai,Wood Elves,and is keen to study them.
+Amris is also a spy for his mother ,and is keeping tabs on Humanity.
+Amris is fascinated by ﬁre,and must pass a Cool  est not to stare.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Young, naïve, and ferociously intelligent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">else.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">else_full.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Else Sigloben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Witch Hunter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interrogator, Witch Hunter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark Brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerlinde Sigloben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zenechar Trott</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Half-brothers and sisters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Havelfurt, Reikland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Else is dedicated to Sigmar. Nothing else. Her mother was a Witch Hunter and instilled in her the importance of the work. First hand. Else will never forget the burnings she witnessed as a child. Or the screams. She’ll do anything to avoid a world where those screams are common-place. So, she burns the weak to preserve the Empire. Because Else is dedicated to Sigmar. Nothing else.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Ending heretics.
+2) Finding love.
+3) Binding the folk of the Empire together into a greater whole.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respects Salundra, her noble blood,and her noble goals. Just not the drinking. The Dwarfs were allies of Sigmar, and Else wants to be the best ally to Gunnar. Molli is skilled.That is the only thing good to say about her. Ferdinand,a witch, needs be watched at all times for signs of corruption. Amris. Else’s weakspot. She is head-over heels in love with him. And it’s breaking her</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Else has taken to ﬂogging herself to purge her impure thoughts. Start each day with 1 Fatigued Condition that lasts 2 hours. Else dreams of Amris nightly,obsessively,needfully. Gain 3 Corruption points. You will not attack an y Elves.You have grown attached to them. You like killing heretics a little too much.Gain 3 Corruption points You are over pious.You will donate 10% of all moneys made to Sigmar’ s temples.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quiet, dedicated, and iron-willed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOLRELLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">molrella.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">molrella_full.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molrella Brandysnap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halfling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rogue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thief</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pauper, Prowler, Thief</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chestnut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halarnella Brandysnap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fartomeus Brandysnap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 Sisters, 1 is a twin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 ex-husbands and wives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Altdorf, Reikland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raised in a single-room with her large extended family, Molli’s happy, gregarious, fun to be around, and utterly confused by Human morality and concepts of ownership. This lands her in a lot of trouble. Frequently. ‘But me winnin’ smile will see me through!’ Caught by Salundra trying to steal her horse four years ago (it was a long story), Molli has been hanging around the young soldier ever since. Molli and Sali are very close. But, then, Molli is close to everybody</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Getting away with doing wrong.
+2) Making the dour happy.
+3) Finding a new lover.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molli adores Sali. Gunnar is just too dour, and clearly needs more tickles. Molli has taken it as a personal goal to make Ferdinand talk more. Amris is just weird.Molli can’t help staring at him.All the time. Else needs to visit a brothel and relax. Molli is sure she can be convinced.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molli is terriﬁed of fog and mist, suﬀering a Fatigued Condition when in it.
+If Molli could ﬁgure out a way to get Sali to marry her, she would.
+Molli hates sleeping alone. Suﬀer a Fatigued Condition for 2 hours after you do.
+Molli can’t abide bad manners (as she deﬁnes them) and always calls them out.
+Molli loves a good con,admiring their ingenuity,and does not see them as a crime.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utterly joyful, irrepressible, and blithe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALUNDRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">salundra.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">salundra_full.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salundra von Drakenburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soldier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Officer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scion, Officer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duchess Anya von Drakenburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duke Konstantin von Drakenburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drakenburg, Reikland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salundra is the rebellious daughter of the influential Duke von Drakenberg. She was raised in the military and now seeks her own fortune. She has a matter-of-fact, no-nonsense attitude that disappears entirely when she drinks and reverts to the unruly soldier of her youth. Called ‘Sali’ by her friends, she lets few know her, fearing betrayal, but bonds for life with those she befriends.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Taking command of a tough situations.
+2) Helping the downtrodden.
+3) Vanquishing the corrupt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You would hap pily drink with Gunnar until Mannslieb fell from the sky.
+Molli is your best friend in the world, and you will do anything to protect her.
+You have grown to implicitly trust Ferdinand.
+You feel personally r esponsible for Amris’s safety.
+It’s important to help Else see there is more to life than Sigmar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have fought Chaos,but not escape untainted. Gain +3 Corruption.
+You are a drunk. You must pass a Cool test not to drink when the option arises.
+You’ve an illegitimate child of 6 being raised by the father, Graf Jungfreud.
+You hate lawyers,and will not engage with them without passing a Cool test.
+You were paid to keep Amris away from his father by a secretive third party.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confident, capable, but somewhat temperamental.</t>
   </si>
 </sst>
 </file>
@@ -428,17 +765,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -458,523 +803,1784 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CD2"/>
+  <dimension ref="A1:CE7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BW7" activeCellId="0" sqref="BW7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="39.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="21.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="26.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="82.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="33.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="60.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="46.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="0" width="28.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="0" width="21.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="0" width="21.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="30.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="39.73"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="10" style="1" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="24.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="21.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="26.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="82.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="33.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="60.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="46.68"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="40" min="25" style="1" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="15"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="65" min="42" style="1" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="1" width="28.34"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="70" min="67" style="1" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="1" width="21.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="1" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="1" width="30.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="1" width="22.36"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="75" style="1" width="11.64"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BA1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BC1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BD1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BE1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BF1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BG1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BH1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BI1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BK1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BL1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BM1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BN1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BO1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BP1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BR1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BS1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BT1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BU1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BV1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BW1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BX1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BY1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CA1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CB1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CC1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CD1" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="CE1" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="true" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="0" t="s">
+    <row r="2" s="3" customFormat="true" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="J2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" s="3" t="n">
         <v>59</v>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="L2" s="3" t="n">
         <v>4.8</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="P2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="Q2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="R2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="S2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="T2" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="U2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="V2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="W2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="Z2" s="2" t="n">
+      <c r="X2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z2" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="AA2" s="2" t="n">
+      <c r="AA2" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="AB2" s="2" t="n">
+      <c r="AB2" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="AC2" s="2" t="n">
+      <c r="AC2" s="3" t="n">
         <v>51</v>
       </c>
-      <c r="AD2" s="2" t="n">
+      <c r="AD2" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="AE2" s="2" t="n">
+      <c r="AE2" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="AF2" s="2" t="n">
+      <c r="AF2" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="AG2" s="2" t="n">
+      <c r="AG2" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="AH2" s="2" t="n">
+      <c r="AH2" s="3" t="n">
         <v>52</v>
       </c>
-      <c r="AI2" s="2" t="n">
+      <c r="AI2" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="AJ2" s="2" t="n">
+      <c r="AJ2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AK2" s="2" t="n">
+      <c r="AK2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AL2" s="2" t="n">
+      <c r="AL2" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="AM2" s="2" t="n">
+      <c r="AM2" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="AN2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="2" t="n">
+      <c r="AN2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="3" t="n">
         <v>2200</v>
       </c>
-      <c r="AP2" s="2" t="n">
+      <c r="AP2" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="AQ2" s="2" t="n">
+      <c r="AQ2" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="AR2" s="2" t="n">
+      <c r="AR2" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="AS2" s="2" t="n">
+      <c r="AS2" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="AT2" s="2" t="n">
+      <c r="AT2" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="AU2" s="2" t="n">
+      <c r="AU2" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="AV2" s="2" t="n">
+      <c r="AV2" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="AW2" s="2" t="n">
+      <c r="AW2" s="3" t="n">
         <v>52</v>
       </c>
-      <c r="AX2" s="2" t="n">
+      <c r="AX2" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="AY2" s="2" t="n">
+      <c r="AY2" s="3" t="n">
         <v>67</v>
       </c>
-      <c r="AZ2" s="2" t="n">
+      <c r="AZ2" s="3" t="n">
         <v>63</v>
       </c>
-      <c r="BA2" s="2" t="n">
+      <c r="BA2" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="BB2" s="2" t="n">
+      <c r="BB2" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="BC2" s="2" t="n">
+      <c r="BC2" s="3" t="n">
         <v>63</v>
       </c>
-      <c r="BD2" s="2" t="n">
+      <c r="BD2" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="BE2" s="2" t="n">
+      <c r="BE2" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="BF2" s="2" t="n">
+      <c r="BF2" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="BG2" s="2" t="n">
+      <c r="BG2" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="BH2" s="2" t="n">
+      <c r="BH2" s="3" t="n">
         <v>43</v>
       </c>
-      <c r="BI2" s="2" t="n">
+      <c r="BI2" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="BJ2" s="2" t="n">
+      <c r="BJ2" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="BK2" s="2" t="n">
+      <c r="BK2" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="BL2" s="2" t="n">
+      <c r="BL2" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="BM2" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="BM2" s="2" t="n">
+      <c r="BN2" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="BN2" s="2" t="n">
+      <c r="BO2" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="BO2" s="2" t="n">
+      <c r="BP2" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="BP2" s="2" t="n">
+      <c r="BQ2" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="BQ2" s="2" t="n">
+      <c r="BR2" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="BR2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="BS2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="BT2" s="2" t="s">
+      <c r="BS2" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="BU2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV2" s="2" t="s">
+      <c r="BT2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="BU2" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="BW2" s="2" t="n">
+      <c r="BV2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="BX2" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="BX2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD2" s="2" t="n">
+      <c r="BY2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE2" s="3" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z3" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA3" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB3" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD3" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE3" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AF3" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG3" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="AH3" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AI3" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="1" t="n">
+        <v>2200</v>
+      </c>
+      <c r="AP3" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ3" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR3" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS3" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AT3" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AU3" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AV3" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="AW3" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AX3" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AY3" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="AZ3" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="BA3" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="BB3" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="BC3" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="BD3" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="BE3" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="BF3" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="BG3" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="BH3" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="BI3" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="BJ3" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK3" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="BL3" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="BM3" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="BN3" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="BO3" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="BP3" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="BQ3" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="BR3" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="BS3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BT3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BU3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BV3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="BX3" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="BY3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z4" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA4" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB4" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC4" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD4" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="AE4" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF4" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="AG4" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="AH4" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AI4" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="1" t="n">
+        <v>2200</v>
+      </c>
+      <c r="AP4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR4" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AS4" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="AT4" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="AU4" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="AV4" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="AX4" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AY4" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="AZ4" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="BA4" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="BB4" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="BC4" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="BD4" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="BE4" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="BF4" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="BG4" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="BH4" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="BI4" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="BJ4" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="BK4" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="BL4" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="BM4" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="BN4" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="BO4" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="BP4" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="BQ4" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="BR4" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="BS4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BT4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BU4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BV4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BX4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="BY4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE4" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z5" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA5" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB5" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC5" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD5" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE5" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF5" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG5" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AH5" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="AI5" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="1" t="n">
+        <v>2200</v>
+      </c>
+      <c r="AP5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ5" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR5" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS5" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="AT5" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AU5" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AV5" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AW5" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="AX5" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AY5" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="AZ5" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA5" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="BB5" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="BC5" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="BD5" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="BE5" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="BF5" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="BG5" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="BH5" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="BI5" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="BJ5" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="BK5" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="BL5" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="BM5" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="BN5" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="BO5" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="BP5" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="BQ5" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="BR5" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="BS5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BT5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BU5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BV5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BX5" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="BY5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="CE5" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z6" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA6" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AB6" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC6" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AD6" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AE6" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF6" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG6" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH6" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="AI6" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="1" t="n">
+        <v>2200</v>
+      </c>
+      <c r="AP6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR6" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS6" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="AT6" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="AU6" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="AV6" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW6" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="AX6" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AY6" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="AZ6" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="BA6" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="BB6" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="BC6" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="BD6" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE6" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="BF6" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="BG6" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="BH6" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="BI6" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="BJ6" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="BK6" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="BL6" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="BM6" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="BN6" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="BO6" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="BP6" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="BQ6" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="BR6" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="BS6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BT6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BU6" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="BV6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BX6" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="BY6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE6" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z7" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA7" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB7" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AC7" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AD7" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE7" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AF7" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG7" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AH7" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="AI7" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="1" t="n">
+        <v>2200</v>
+      </c>
+      <c r="AP7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR7" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS7" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AT7" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AU7" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AV7" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AW7" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="AX7" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="AY7" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="AZ7" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="BA7" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="BB7" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="BC7" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="BD7" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="BE7" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="BF7" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="BG7" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="BH7" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="BI7" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="BJ7" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="BK7" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="BL7" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="BM7" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="BN7" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="BO7" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="BP7" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="BQ7" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="BR7" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="BS7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BT7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BU7" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="BV7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BX7" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="BY7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="CE7" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
